--- a/TourPlanner_Checklist_Final_UpToDate.xlsx
+++ b/TourPlanner_Checklist_Final_UpToDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\SWE_TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9293C1-829E-4456-9D09-AF1E5DF7F464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1CA93-8B42-489E-ACB6-2DA2BC4E9FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>Uses C# or Java</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Vincent?</t>
+  </si>
+  <si>
+    <t>No image</t>
+  </si>
+  <si>
+    <t>Jo ka</t>
   </si>
 </sst>
 </file>
@@ -329,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +360,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -367,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,6 +392,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,9 +900,12 @@
         <v>7</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="12" t="s">
         <v>76</v>
       </c>
     </row>
@@ -944,6 +961,9 @@
       <c r="A32" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
       <c r="C32" s="6">
         <v>1</v>
       </c>
@@ -959,7 +979,9 @@
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="11">
+        <v>2</v>
+      </c>
       <c r="C34" s="6">
         <v>2</v>
       </c>
@@ -968,6 +990,9 @@
       <c r="A35" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
       <c r="C35" s="6">
         <v>1</v>
       </c>
@@ -988,6 +1013,9 @@
       <c r="A39" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
       <c r="C39" s="6">
         <v>1</v>
       </c>
@@ -1003,6 +1031,9 @@
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
       <c r="C41" s="6">
         <v>1</v>
       </c>
@@ -1025,6 +1056,9 @@
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
       <c r="C45" s="6">
         <v>2</v>
       </c>
@@ -1033,6 +1067,9 @@
       <c r="A46" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
       <c r="C46" s="6">
         <v>2</v>
       </c>
@@ -1044,115 +1081,163 @@
       <c r="B48"/>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
       <c r="C49" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
       <c r="C50" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
       <c r="C51" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
       <c r="C52" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
       <c r="C54" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
       <c r="C57" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="B58" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C58" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
       <c r="C59" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
       <c r="C60" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
       <c r="C61" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
       <c r="C62" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
       <c r="C63" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
       <c r="C64" s="6">
         <v>1</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1246,7 +1331,7 @@
       </c>
       <c r="B80" s="2">
         <f>IF(MIN(B9:B21)=1,SUM(B27:B78),0)</f>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="C80" s="2">
         <f>SUM(C27:C78)</f>

--- a/TourPlanner_Checklist_Final_UpToDate.xlsx
+++ b/TourPlanner_Checklist_Final_UpToDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\SWE_TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1CA93-8B42-489E-ACB6-2DA2BC4E9FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8BEF63-6E32-41B9-9EF4-637D813016FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Uses C# or Java</t>
   </si>
@@ -273,6 +273,21 @@
   </si>
   <si>
     <t>Jo ka</t>
+  </si>
+  <si>
+    <t>kein bock</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>Wären dann 87,5%</t>
+  </si>
+  <si>
+    <t>Mit den 5% von der Presentation die noch nd eingetragen is sind es 92,5%</t>
+  </si>
+  <si>
+    <t>Ab 88% = 1er</t>
   </si>
 </sst>
 </file>
@@ -726,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,102 +1255,165 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
       <c r="C68" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
       <c r="C69" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
       <c r="C71" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
       <c r="C72" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
       <c r="C73" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
       <c r="C74" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B75">
+        <v>0.5</v>
+      </c>
       <c r="C75" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="B76">
+        <v>0.5</v>
+      </c>
       <c r="C76" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D76" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B78"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="80" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B80" s="2">
         <f>IF(MIN(B9:B21)=1,SUM(B27:B78),0)</f>
-        <v>27.5</v>
+        <v>31.5</v>
       </c>
       <c r="C80" s="2">
         <f>SUM(C27:C78)</f>
         <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/TourPlanner_Checklist_Final_UpToDate.xlsx
+++ b/TourPlanner_Checklist_Final_UpToDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\SWE_TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8BEF63-6E32-41B9-9EF4-637D813016FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDE0E56-5E8A-4256-BF11-D755337CEEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Uses C# or Java</t>
   </si>
@@ -281,13 +281,16 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t>Wären dann 87,5%</t>
-  </si>
-  <si>
-    <t>Mit den 5% von der Presentation die noch nd eingetragen is sind es 92,5%</t>
-  </si>
-  <si>
     <t>Ab 88% = 1er</t>
+  </si>
+  <si>
+    <t>Bis jz</t>
+  </si>
+  <si>
+    <t>Mit dem Projekt wären das</t>
+  </si>
+  <si>
+    <t>Mit den 5% von der Presentation (die noch nd eingetragen is) sind es</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,6 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,9 +1311,7 @@
       <c r="C71" s="6">
         <v>1</v>
       </c>
-      <c r="D71" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -1321,9 +1323,7 @@
       <c r="C72" s="6">
         <v>1</v>
       </c>
-      <c r="D72" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -1349,9 +1349,7 @@
       <c r="C74" s="6">
         <v>1</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -1377,9 +1375,7 @@
       <c r="C76" s="6">
         <v>0.5</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="D76" s="14"/>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -1401,19 +1397,33 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <f>B82+B80</f>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <f>B83+5</f>
+        <v>90.5</v>
+      </c>
+      <c r="C84" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1423,6 +1433,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TourPlanner_Checklist_Final_UpToDate.xlsx
+++ b/TourPlanner_Checklist_Final_UpToDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\SWE_TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDE0E56-5E8A-4256-BF11-D755337CEEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDDDB95-4886-47CF-928C-5D53FCB8E68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>Uses C# or Java</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>kein bock</t>
-  </si>
-  <si>
-    <t>TO DO</t>
   </si>
   <si>
     <t>Ab 88% = 1er</t>
@@ -747,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1308,6 @@
       <c r="C71" s="6">
         <v>1</v>
       </c>
-      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -1323,7 +1319,6 @@
       <c r="C72" s="6">
         <v>1</v>
       </c>
-      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -1349,7 +1344,6 @@
       <c r="C74" s="6">
         <v>1</v>
       </c>
-      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -1361,9 +1355,7 @@
       <c r="C75" s="6">
         <v>0.5</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
@@ -1375,7 +1367,6 @@
       <c r="C76" s="6">
         <v>0.5</v>
       </c>
-      <c r="D76" s="14"/>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -1399,7 +1390,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>54</v>
@@ -1407,7 +1398,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <f>B82+B80</f>
@@ -1416,14 +1407,14 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <f>B83+5</f>
         <v>90.5</v>
       </c>
       <c r="C84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/TourPlanner_Checklist_Final_UpToDate.xlsx
+++ b/TourPlanner_Checklist_Final_UpToDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\SWE_TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDDDB95-4886-47CF-928C-5D53FCB8E68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AAAF94-1CC2-431D-BC07-3B5361660053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Uses C# or Java</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>Mit den 5% von der Presentation (die noch nd eingetragen is) sind es</t>
+  </si>
+  <si>
+    <t>Sogar 35</t>
+  </si>
+  <si>
+    <t>Wird scho passn</t>
   </si>
 </sst>
 </file>
@@ -744,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +759,7 @@
     <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -918,11 +925,8 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>76</v>
+      <c r="D21" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -1247,13 +1251,13 @@
         <v>47</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="6">
         <v>1</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1355,7 +1359,6 @@
       <c r="C75" s="6">
         <v>0.5</v>
       </c>
-      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
@@ -1381,7 +1384,7 @@
       </c>
       <c r="B80" s="2">
         <f>IF(MIN(B9:B21)=1,SUM(B27:B78),0)</f>
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="C80" s="2">
         <f>SUM(C27:C78)</f>
@@ -1402,7 +1405,7 @@
       </c>
       <c r="B83">
         <f>B82+B80</f>
-        <v>85.5</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,7 +1414,7 @@
       </c>
       <c r="B84">
         <f>B83+5</f>
-        <v>90.5</v>
+        <v>91.5</v>
       </c>
       <c r="C84" t="s">
         <v>80</v>

--- a/TourPlanner_Checklist_Final_UpToDate.xlsx
+++ b/TourPlanner_Checklist_Final_UpToDate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\SWE_TourPlanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SWE_TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AAAF94-1CC2-431D-BC07-3B5361660053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719FA293-7213-4DB9-9F67-CF526D769CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21660" windowHeight="14010" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>Uses C# or Java</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>Jo ka</t>
-  </si>
-  <si>
-    <t>kein bock</t>
   </si>
   <si>
     <t>Ab 88% = 1er</t>
@@ -400,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -415,10 +412,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -452,9 +448,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -492,7 +488,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -598,7 +594,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -750,11 +746,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -925,8 +921,8 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>84</v>
+      <c r="D21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -1185,7 +1181,7 @@
         <v>31</v>
       </c>
       <c r="B58" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
@@ -1257,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1272,14 +1268,12 @@
         <v>56</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C68" s="6">
         <v>3</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
@@ -1291,9 +1285,7 @@
       <c r="C69" s="6">
         <v>1</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
@@ -1329,7 +1321,7 @@
         <v>24</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="6">
         <v>1</v>
@@ -1384,7 +1376,7 @@
       </c>
       <c r="B80" s="2">
         <f>IF(MIN(B9:B21)=1,SUM(B27:B78),0)</f>
-        <v>32.5</v>
+        <v>37</v>
       </c>
       <c r="C80" s="2">
         <f>SUM(C27:C78)</f>
@@ -1393,7 +1385,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>54</v>
@@ -1401,23 +1393,23 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <f>B82+B80</f>
-        <v>86.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <f>B83+5</f>
-        <v>91.5</v>
+        <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
